--- a/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\CSCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512CFD96-61D5-444A-AA02-6CF705DDAC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F241059-14A5-460C-8691-714166C9424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B34A57F7-1B7C-4EA7-AF88-1D9B2E73649A}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9300" xr2:uid="{B34A57F7-1B7C-4EA7-AF88-1D9B2E73649A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="228">
   <si>
     <t>Agency</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>Data Category</t>
@@ -1319,7 +1316,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,2942 +1335,2942 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
         <v>77</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
         <v>80</v>
       </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
         <v>82</v>
       </c>
-      <c r="E36" t="s">
-        <v>83</v>
-      </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
         <v>88</v>
       </c>
-      <c r="E39" t="s">
-        <v>89</v>
-      </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
         <v>94</v>
       </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
         <v>96</v>
       </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
         <v>98</v>
       </c>
-      <c r="E44" t="s">
-        <v>99</v>
-      </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
         <v>100</v>
       </c>
-      <c r="E45" t="s">
-        <v>101</v>
-      </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
         <v>102</v>
       </c>
-      <c r="E46" t="s">
-        <v>103</v>
-      </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
         <v>104</v>
       </c>
-      <c r="E47" t="s">
-        <v>105</v>
-      </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
         <v>106</v>
       </c>
-      <c r="E48" t="s">
-        <v>107</v>
-      </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
         <v>108</v>
       </c>
-      <c r="E49" t="s">
-        <v>109</v>
-      </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
         <v>110</v>
       </c>
-      <c r="E50" t="s">
-        <v>111</v>
-      </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
         <v>112</v>
       </c>
-      <c r="E51" t="s">
-        <v>113</v>
-      </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
         <v>114</v>
       </c>
-      <c r="E52" t="s">
-        <v>115</v>
-      </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
         <v>116</v>
       </c>
-      <c r="E53" t="s">
-        <v>117</v>
-      </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="E54" t="s">
-        <v>119</v>
-      </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
         <v>120</v>
       </c>
-      <c r="E55" t="s">
-        <v>121</v>
-      </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
         <v>122</v>
       </c>
-      <c r="E56" t="s">
-        <v>123</v>
-      </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
         <v>124</v>
       </c>
-      <c r="E57" t="s">
-        <v>125</v>
-      </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
         <v>126</v>
       </c>
-      <c r="E58" t="s">
-        <v>127</v>
-      </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
         <v>128</v>
       </c>
-      <c r="E59" t="s">
-        <v>129</v>
-      </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
         <v>130</v>
       </c>
-      <c r="E60" t="s">
-        <v>131</v>
-      </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
         <v>132</v>
       </c>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
         <v>134</v>
       </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" t="s">
         <v>136</v>
       </c>
-      <c r="E63" t="s">
-        <v>137</v>
-      </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
         <v>138</v>
       </c>
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
         <v>140</v>
       </c>
-      <c r="E65" t="s">
-        <v>141</v>
-      </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
         <v>142</v>
       </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
         <v>144</v>
       </c>
-      <c r="E67" t="s">
-        <v>145</v>
-      </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>147</v>
       </c>
-      <c r="E68" t="s">
-        <v>148</v>
-      </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
         <v>149</v>
       </c>
-      <c r="E69" t="s">
-        <v>150</v>
-      </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" t="s">
         <v>151</v>
       </c>
-      <c r="E70" t="s">
-        <v>152</v>
-      </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" t="s">
         <v>154</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>155</v>
       </c>
-      <c r="E72" t="s">
-        <v>156</v>
-      </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
         <v>157</v>
       </c>
-      <c r="E73" t="s">
-        <v>158</v>
-      </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
         <v>159</v>
       </c>
-      <c r="E74" t="s">
-        <v>160</v>
-      </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
         <v>161</v>
       </c>
-      <c r="E75" t="s">
-        <v>162</v>
-      </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
         <v>163</v>
       </c>
-      <c r="E76" t="s">
-        <v>164</v>
-      </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
         <v>165</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>166</v>
       </c>
-      <c r="E77" t="s">
-        <v>167</v>
-      </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" t="s">
         <v>168</v>
       </c>
-      <c r="E78" t="s">
-        <v>169</v>
-      </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
         <v>170</v>
       </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>171</v>
-      </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
       <c r="E81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
         <v>176</v>
       </c>
-      <c r="E84" t="s">
-        <v>177</v>
-      </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
         <v>178</v>
       </c>
-      <c r="E85" t="s">
-        <v>179</v>
-      </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" t="s">
         <v>182</v>
       </c>
-      <c r="E88" t="s">
-        <v>183</v>
-      </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
         <v>28</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>29</v>
       </c>
-      <c r="E93" t="s">
-        <v>30</v>
-      </c>
       <c r="G93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
         <v>31</v>
       </c>
-      <c r="E94" t="s">
-        <v>32</v>
-      </c>
       <c r="G94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
         <v>33</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>34</v>
       </c>
-      <c r="E95" t="s">
-        <v>35</v>
-      </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
         <v>36</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>37</v>
       </c>
-      <c r="E96" t="s">
-        <v>38</v>
-      </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
         <v>39</v>
       </c>
-      <c r="E97" t="s">
-        <v>40</v>
-      </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
         <v>41</v>
       </c>
-      <c r="E98" t="s">
-        <v>42</v>
-      </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" t="s">
         <v>188</v>
       </c>
-      <c r="E100" t="s">
-        <v>189</v>
-      </c>
       <c r="G100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102" t="s">
         <v>191</v>
       </c>
-      <c r="E102" t="s">
-        <v>192</v>
-      </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
         <v>52</v>
       </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" t="s">
         <v>55</v>
       </c>
-      <c r="E104" t="s">
-        <v>56</v>
-      </c>
       <c r="G104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" t="s">
         <v>59</v>
       </c>
-      <c r="E106" t="s">
-        <v>60</v>
-      </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" t="s">
         <v>196</v>
       </c>
-      <c r="E109" t="s">
-        <v>197</v>
-      </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" t="s">
         <v>198</v>
       </c>
-      <c r="E110" t="s">
-        <v>199</v>
-      </c>
       <c r="G110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" t="s">
         <v>200</v>
       </c>
-      <c r="E111" t="s">
-        <v>201</v>
-      </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E112" t="s">
         <v>202</v>
       </c>
-      <c r="E112" t="s">
-        <v>203</v>
-      </c>
       <c r="G112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D114" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" t="s">
         <v>130</v>
       </c>
-      <c r="E114" t="s">
-        <v>131</v>
-      </c>
       <c r="G114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" t="s">
         <v>140</v>
       </c>
-      <c r="E115" t="s">
-        <v>141</v>
-      </c>
       <c r="G115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D116" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" t="s">
         <v>144</v>
       </c>
-      <c r="E116" t="s">
-        <v>145</v>
-      </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D117" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" t="s">
         <v>86</v>
       </c>
-      <c r="E117" t="s">
-        <v>87</v>
-      </c>
       <c r="G117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D119" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" t="s">
         <v>92</v>
       </c>
-      <c r="E119" t="s">
-        <v>93</v>
-      </c>
       <c r="G119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D122" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" t="s">
         <v>98</v>
       </c>
-      <c r="E122" t="s">
-        <v>99</v>
-      </c>
       <c r="G122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" t="s">
         <v>77</v>
       </c>
-      <c r="D123" t="s">
-        <v>78</v>
-      </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D124" t="s">
+        <v>207</v>
+      </c>
+      <c r="E124" t="s">
         <v>208</v>
       </c>
-      <c r="E124" t="s">
-        <v>209</v>
-      </c>
       <c r="G124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E125" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D127" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" t="s">
         <v>108</v>
       </c>
-      <c r="E127" t="s">
-        <v>109</v>
-      </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D128" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" t="s">
         <v>110</v>
       </c>
-      <c r="E128" t="s">
-        <v>111</v>
-      </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" t="s">
         <v>112</v>
       </c>
-      <c r="E129" t="s">
-        <v>113</v>
-      </c>
       <c r="G129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D130" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" t="s">
         <v>114</v>
       </c>
-      <c r="E130" t="s">
-        <v>115</v>
-      </c>
       <c r="G130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" t="s">
         <v>116</v>
       </c>
-      <c r="E131" t="s">
-        <v>117</v>
-      </c>
       <c r="G131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" t="s">
         <v>118</v>
       </c>
-      <c r="E132" t="s">
-        <v>119</v>
-      </c>
       <c r="G132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D133" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" t="s">
         <v>120</v>
       </c>
-      <c r="E133" t="s">
-        <v>121</v>
-      </c>
       <c r="G133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D134" t="s">
+        <v>121</v>
+      </c>
+      <c r="E134" t="s">
         <v>122</v>
       </c>
-      <c r="E134" t="s">
-        <v>123</v>
-      </c>
       <c r="G134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D135" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" t="s">
         <v>124</v>
       </c>
-      <c r="E135" t="s">
-        <v>125</v>
-      </c>
       <c r="G135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D136" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" t="s">
         <v>126</v>
       </c>
-      <c r="E136" t="s">
-        <v>127</v>
-      </c>
       <c r="G136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E138" t="s">
         <v>213</v>
       </c>
-      <c r="E138" t="s">
-        <v>214</v>
-      </c>
       <c r="G138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D140" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" t="s">
         <v>136</v>
       </c>
-      <c r="E140" t="s">
-        <v>137</v>
-      </c>
       <c r="G140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D144" t="s">
+        <v>141</v>
+      </c>
+      <c r="E144" t="s">
         <v>142</v>
       </c>
-      <c r="E144" t="s">
-        <v>143</v>
-      </c>
       <c r="G144" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C147" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" t="s">
         <v>146</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>147</v>
       </c>
-      <c r="E147" t="s">
-        <v>148</v>
-      </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctregents.sharepoint.com/sites/SO-DEPT-ORSE/Shared Documents/General/ORSE/P20W_SLDS/P20 WIN Data Dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctregents-my.sharepoint.com/personal/sarah_caro_ct_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C34A50-95D1-47C2-98EF-32679F7929FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7427256C-BFB9-475D-8DA0-B780F231F1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-5060" windowWidth="38620" windowHeight="21220" xr2:uid="{B34A57F7-1B7C-4EA7-AF88-1D9B2E73649A}"/>
+    <workbookView xWindow="-28920" yWindow="-6885" windowWidth="29040" windowHeight="15840" xr2:uid="{B34A57F7-1B7C-4EA7-AF88-1D9B2E73649A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="200">
   <si>
     <t>Agency</t>
   </si>
@@ -571,18 +571,6 @@
   </si>
   <si>
     <t>Effective start date of the record as reported by the National Student Clearinghouse (NSC)</t>
-  </si>
-  <si>
-    <t>Transfer college Record Expiration Date</t>
-  </si>
-  <si>
-    <t>The end date of the recordas reported by the National Student Clearinghouse (NSC)</t>
-  </si>
-  <si>
-    <t>NSC Other College Name - IPEDS</t>
-  </si>
-  <si>
-    <t>As presented in record from the National Student Clearinghouse (NSC), this is the Institution name used for IPEDS from the National Center for Education Statistics (NCES)</t>
   </si>
   <si>
     <t>NSC Other College Name - NSC</t>
@@ -925,14 +913,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -970,7 +954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1076,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1218,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,10 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3296F2-767C-4D9F-B57D-DABF445A1D9C}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1222,7 @@
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="44.90625" customWidth="1"/>
     <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -1320,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -1494,13 +1479,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1514,13 +1499,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
         <v>145</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1594,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1614,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1637,10 +1622,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1657,10 +1642,10 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1674,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1694,13 +1679,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1717,10 +1702,10 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1737,10 +1722,10 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1757,10 +1742,10 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1777,10 +1762,10 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1797,10 +1782,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1817,10 +1802,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1834,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1854,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1877,10 +1862,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1897,10 +1882,10 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1917,10 +1902,10 @@
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1937,10 +1922,10 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1957,10 +1942,10 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -1977,10 +1962,10 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1997,10 +1982,10 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -2017,10 +2002,10 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -2037,10 +2022,10 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -2057,10 +2042,10 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2077,10 +2062,10 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -2097,10 +2082,10 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -2117,10 +2102,10 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -2137,10 +2122,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -2157,10 +2142,10 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -2177,10 +2162,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2197,10 +2182,10 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2217,10 +2202,10 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -2237,10 +2222,10 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -2257,10 +2242,10 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -2277,10 +2262,10 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -2297,10 +2282,10 @@
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2317,10 +2302,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2337,10 +2322,10 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2357,10 +2342,10 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2377,10 +2362,10 @@
         <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -2397,10 +2382,10 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2417,10 +2402,10 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2437,10 +2422,10 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -2457,10 +2442,10 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -2477,10 +2462,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
@@ -2497,10 +2482,10 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -2514,13 +2499,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -2534,13 +2519,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -2557,10 +2542,10 @@
         <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
@@ -2577,10 +2562,10 @@
         <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2591,19 +2576,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2611,19 +2596,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2631,19 +2616,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2651,19 +2636,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2671,19 +2656,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2691,19 +2676,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2711,19 +2696,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2731,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2740,10 +2725,10 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2751,19 +2736,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2771,19 +2756,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2791,19 +2776,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2811,19 +2796,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2831,19 +2816,19 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2851,19 +2836,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2871,19 +2856,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>25</v>
       </c>
       <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
         <v>166</v>
       </c>
-      <c r="E82" t="s">
-        <v>167</v>
-      </c>
       <c r="G82" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2891,19 +2876,19 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2911,19 +2896,19 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2931,19 +2916,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
         <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2951,19 +2936,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2971,19 +2956,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2991,19 +2976,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3011,19 +2996,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3031,19 +3016,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
         <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
         <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3051,7 +3036,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>41</v>
@@ -3063,7 +3048,7 @@
         <v>175</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3071,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>41</v>
@@ -3083,7 +3068,7 @@
         <v>177</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -3091,19 +3076,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3111,19 +3096,19 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3131,19 +3116,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -3151,19 +3136,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E96" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G96" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -3171,19 +3156,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="G97" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -3191,19 +3176,19 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="G98" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -3211,19 +3196,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3231,19 +3216,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3251,19 +3236,19 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3271,19 +3256,19 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
         <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3291,19 +3276,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3311,19 +3296,19 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
         <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3331,19 +3316,19 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
         <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3351,19 +3336,19 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
         <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3371,19 +3356,19 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
         <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3391,19 +3376,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
         <v>57</v>
       </c>
       <c r="D108" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="G108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3411,19 +3396,19 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
         <v>57</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3431,19 +3416,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
         <v>57</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E110" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3451,19 +3436,19 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
         <v>57</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E111" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3471,19 +3456,19 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
         <v>57</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E112" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G112" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3491,19 +3476,19 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
         <v>57</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3511,19 +3496,19 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
         <v>57</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3531,19 +3516,19 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
         <v>57</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3551,19 +3536,19 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
         <v>57</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3571,19 +3556,19 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
         <v>57</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3591,19 +3576,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
         <v>57</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3611,19 +3596,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
         <v>57</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3631,19 +3616,19 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
         <v>57</v>
       </c>
       <c r="D120" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3651,19 +3636,19 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
         <v>57</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G121" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3671,19 +3656,19 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
         <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E122" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="G122" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3691,19 +3676,19 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
         <v>57</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E123" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G123" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3711,19 +3696,19 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
         <v>57</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="G124" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3731,19 +3716,19 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E125" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -3751,19 +3736,19 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E126" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="G126" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -3771,19 +3756,19 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
         <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -3791,52 +3776,115 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>196</v>
-      </c>
-      <c r="G128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E129" t="s">
-        <v>128</v>
-      </c>
-      <c r="G129" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G129" xr:uid="{6E3296F2-767C-4D9F-B57D-DABF445A1D9C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G129">
-      <sortCondition ref="B1:B129"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G127" xr:uid="{6E3296F2-767C-4D9F-B57D-DABF445A1D9C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="148a5e49-fc42-40bb-80d5-f03000fed59d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa80f598-d2e1-455f-a48f-7fda25850771">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AE08C7B3CABB664FA5328F0E353BD534" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e9002b0d85383955d52becd30b0d688">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="148a5e49-fc42-40bb-80d5-f03000fed59d" xmlns:ns3="fa80f598-d2e1-455f-a48f-7fda25850771" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88b7f3183d9aba6656178adc6a594fb7" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4084,36 +4132,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="148a5e49-fc42-40bb-80d5-f03000fed59d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa80f598-d2e1-455f-a48f-7fda25850771">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F62FEB-9ECF-4CE3-A7DF-3AA45D3CD099}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3FD7A1-F7D5-4882-AB89-4AD31D1A03BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="148a5e49-fc42-40bb-80d5-f03000fed59d"/>
+    <ds:schemaRef ds:uri="fa80f598-d2e1-455f-a48f-7fda25850771"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529DCA12-054A-4049-9B7F-8F2AE7B76E9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529DCA12-054A-4049-9B7F-8F2AE7B76E9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3FD7A1-F7D5-4882-AB89-4AD31D1A03BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F62FEB-9ECF-4CE3-A7DF-3AA45D3CD099}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="148a5e49-fc42-40bb-80d5-f03000fed59d"/>
+    <ds:schemaRef ds:uri="fa80f598-d2e1-455f-a48f-7fda25850771"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/CSCU/CSCU_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctgovexec-my.sharepoint.com/personal/augusta_irechukwu_ct_gov/Documents/Documents/GitHub/Data-Dictionaries/Data Dictionaries (Upload Here)/CSCU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7427256C-BFB9-475D-8DA0-B780F231F1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82F677D-0763-4B79-BA85-49DF7226F49A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7427256C-BFB9-475D-8DA0-B780F231F1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F12C580B-5706-42E6-AF33-7429420A09D5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B34A57F7-1B7C-4EA7-AF88-1D9B2E73649A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="199">
   <si>
     <t>Agency</t>
   </si>
@@ -1215,9 +1215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3296F2-767C-4D9F-B57D-DABF445A1D9C}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,8 +3790,11 @@
       <c r="E128" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -3807,8 +3810,11 @@
       <c r="E129" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -3824,8 +3830,11 @@
       <c r="E130" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -3841,8 +3850,11 @@
       <c r="E131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3857,6 +3869,9 @@
       </c>
       <c r="E132" t="s">
         <v>139</v>
+      </c>
+      <c r="G132" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3867,6 +3882,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="148a5e49-fc42-40bb-80d5-f03000fed59d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa80f598-d2e1-455f-a48f-7fda25850771">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AE08C7B3CABB664FA5328F0E353BD534" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e9002b0d85383955d52becd30b0d688">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="148a5e49-fc42-40bb-80d5-f03000fed59d" xmlns:ns3="fa80f598-d2e1-455f-a48f-7fda25850771" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88b7f3183d9aba6656178adc6a594fb7" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4114,29 +4151,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3FD7A1-F7D5-4882-AB89-4AD31D1A03BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="148a5e49-fc42-40bb-80d5-f03000fed59d"/>
+    <ds:schemaRef ds:uri="fa80f598-d2e1-455f-a48f-7fda25850771"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="148a5e49-fc42-40bb-80d5-f03000fed59d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa80f598-d2e1-455f-a48f-7fda25850771">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529DCA12-054A-4049-9B7F-8F2AE7B76E9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F62FEB-9ECF-4CE3-A7DF-3AA45D3CD099}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4154,24 +4189,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529DCA12-054A-4049-9B7F-8F2AE7B76E9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3FD7A1-F7D5-4882-AB89-4AD31D1A03BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="148a5e49-fc42-40bb-80d5-f03000fed59d"/>
-    <ds:schemaRef ds:uri="fa80f598-d2e1-455f-a48f-7fda25850771"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>